--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1647.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1647.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.007749211087691</v>
+        <v>2.439239263534546</v>
       </c>
       <c r="B1">
-        <v>3.486872009194046</v>
+        <v>3.276188850402832</v>
       </c>
       <c r="C1">
-        <v>3.248579999543393</v>
+        <v>2.998655557632446</v>
       </c>
       <c r="D1">
-        <v>2.352367409445161</v>
+        <v>3.404665470123291</v>
       </c>
       <c r="E1">
-        <v>1.252687564796999</v>
+        <v>1.878867626190186</v>
       </c>
     </row>
   </sheetData>
